--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/WYOMING_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/WYOMING_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6">
@@ -452,12 +452,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -496,12 +496,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -540,12 +540,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>BENEMÉRITO DE LAS AMÉRICAS</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHAPULTENANGO</t>
+          <t>Chapultenango</t>
         </is>
       </c>
       <c r="C15">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25">
@@ -714,12 +714,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>BACHÍNIVA</t>
+          <t>Bachíniva</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>BALLEZA</t>
+          <t>Balleza</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOCOYNA</t>
+          <t>Bocoyna</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>CARICHÍ</t>
+          <t>Carichí</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASAS GRANDES</t>
+          <t>Casas Grandes</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>GRAN MORELOS</t>
+          <t>Gran Morelos</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>IGNACIO ZARAGOZA</t>
+          <t>Ignacio Zaragoza</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEOQUI</t>
+          <t>Meoqui</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>OJINAGA</t>
+          <t>Ojinaga</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>Santa Isabel</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TEMÓSACHIC</t>
+          <t>Temósachic</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>URIQUE</t>
+          <t>Urique</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,12 +1109,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C56">
@@ -1127,7 +1127,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C57">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C60">
@@ -1179,7 +1179,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C61">
@@ -1192,7 +1192,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C62">
@@ -1205,7 +1205,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,12 +1244,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C66">
@@ -1262,7 +1262,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C67">
@@ -1275,7 +1275,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C68">
@@ -1288,7 +1288,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C69">
@@ -1301,7 +1301,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C70">
@@ -1314,7 +1314,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C71">
@@ -1327,7 +1327,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C72">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C73">
@@ -1353,7 +1353,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C74">
@@ -1366,7 +1366,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>VIESCA</t>
+          <t>Viesca</t>
         </is>
       </c>
       <c r="C75">
@@ -1379,7 +1379,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C76">
@@ -1392,12 +1392,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C77">
@@ -1410,7 +1410,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C78">
@@ -1423,12 +1423,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C79">
@@ -1441,7 +1441,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C80">
@@ -1454,7 +1454,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>GENERAL SIMÓN BOLÍVAR</t>
+          <t>General Simón Bolívar</t>
         </is>
       </c>
       <c r="C81">
@@ -1467,7 +1467,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C82">
@@ -1480,7 +1480,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C83">
@@ -1493,7 +1493,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C84">
@@ -1506,7 +1506,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C85">
@@ -1519,7 +1519,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C86">
@@ -1532,7 +1532,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>OTÁEZ</t>
+          <t>Otáez</t>
         </is>
       </c>
       <c r="C87">
@@ -1545,7 +1545,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>POANAS</t>
+          <t>Poanas</t>
         </is>
       </c>
       <c r="C88">
@@ -1558,7 +1558,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C89">
@@ -1571,7 +1571,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C90">
@@ -1584,7 +1584,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>SAN BERNARDO</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="C91">
@@ -1597,7 +1597,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C92">
@@ -1610,7 +1610,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>SAN PEDRO DEL GALLO</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C93">
@@ -1623,7 +1623,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="C94">
@@ -1636,7 +1636,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C95">
@@ -1649,7 +1649,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C96">
@@ -1662,12 +1662,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C97">
@@ -1680,7 +1680,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C98">
@@ -1693,7 +1693,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C99">
@@ -1706,7 +1706,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C100">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C101">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C102">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C103">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TEOTIHUACÁN</t>
+          <t>Teotihuacán</t>
         </is>
       </c>
       <c r="C104">
@@ -1771,7 +1771,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C105">
@@ -1784,7 +1784,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C106">
@@ -1797,7 +1797,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C107">
@@ -1810,7 +1810,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C108">
@@ -1823,12 +1823,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C109">
@@ -1841,7 +1841,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C110">
@@ -1854,7 +1854,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C111">
@@ -1867,7 +1867,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C112">
@@ -1880,7 +1880,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C113">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C114">
@@ -1906,7 +1906,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C115">
@@ -1919,7 +1919,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C116">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C117">
@@ -1945,7 +1945,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C118">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C119">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C120">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C121">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C122">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C123">
@@ -2023,12 +2023,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C124">
@@ -2041,7 +2041,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C125">
@@ -2054,7 +2054,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C126">
@@ -2067,7 +2067,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C127">
@@ -2080,7 +2080,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C128">
@@ -2093,7 +2093,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C129">
@@ -2106,7 +2106,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C130">
@@ -2119,7 +2119,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C131">
@@ -2132,7 +2132,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C132">
@@ -2145,12 +2145,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C133">
@@ -2163,7 +2163,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>ATLAPEXCO</t>
+          <t>Atlapexco</t>
         </is>
       </c>
       <c r="C134">
@@ -2176,7 +2176,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C135">
@@ -2189,7 +2189,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C136">
@@ -2202,7 +2202,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C137">
@@ -2215,7 +2215,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C138">
@@ -2228,7 +2228,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C139">
@@ -2241,7 +2241,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>TLAHUILTEPA</t>
+          <t>Tlahuiltepa</t>
         </is>
       </c>
       <c r="C140">
@@ -2254,7 +2254,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TLANCHINOL</t>
+          <t>Tlanchinol</t>
         </is>
       </c>
       <c r="C141">
@@ -2267,7 +2267,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C142">
@@ -2280,7 +2280,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C143">
@@ -2293,12 +2293,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C144">
@@ -2311,7 +2311,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C145">
@@ -2324,7 +2324,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C146">
@@ -2337,7 +2337,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C147">
@@ -2350,7 +2350,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C148">
@@ -2363,7 +2363,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C149">
@@ -2376,7 +2376,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C150">
@@ -2389,7 +2389,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C151">
@@ -2402,7 +2402,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C152">
@@ -2415,7 +2415,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C153">
@@ -2428,7 +2428,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C154">
@@ -2441,7 +2441,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C155">
@@ -2454,7 +2454,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C156">
@@ -2467,7 +2467,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C157">
@@ -2480,7 +2480,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LOS LAGOS</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C158">
@@ -2493,7 +2493,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>SAN JULIÁN</t>
+          <t>San Julián</t>
         </is>
       </c>
       <c r="C159">
@@ -2506,7 +2506,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C160">
@@ -2519,7 +2519,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C161">
@@ -2532,7 +2532,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C162">
@@ -2545,7 +2545,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C163">
@@ -2558,7 +2558,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C164">
@@ -2571,7 +2571,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C165">
@@ -2584,7 +2584,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C166">
@@ -2597,7 +2597,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C167">
@@ -2610,7 +2610,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C168">
@@ -2623,12 +2623,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C169">
@@ -2641,7 +2641,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C170">
@@ -2654,7 +2654,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>CHAVINDA</t>
+          <t>Chavinda</t>
         </is>
       </c>
       <c r="C171">
@@ -2667,7 +2667,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C172">
@@ -2680,7 +2680,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C173">
@@ -2693,7 +2693,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C174">
@@ -2706,7 +2706,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C175">
@@ -2719,7 +2719,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C176">
@@ -2732,7 +2732,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C177">
@@ -2745,7 +2745,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C178">
@@ -2758,7 +2758,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C179">
@@ -2771,7 +2771,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C180">
@@ -2784,7 +2784,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C181">
@@ -2797,7 +2797,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C182">
@@ -2810,7 +2810,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C183">
@@ -2823,7 +2823,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C184">
@@ -2836,7 +2836,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C185">
@@ -2849,7 +2849,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C186">
@@ -2862,7 +2862,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C187">
@@ -2875,7 +2875,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C188">
@@ -2888,7 +2888,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C189">
@@ -2901,7 +2901,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C190">
@@ -2914,7 +2914,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C191">
@@ -2927,12 +2927,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C192">
@@ -2945,7 +2945,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C193">
@@ -2958,7 +2958,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>TETELA DEL VOLCÁN</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C194">
@@ -2971,7 +2971,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C195">
@@ -2984,7 +2984,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C196">
@@ -2997,12 +2997,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C197">
@@ -3015,7 +3015,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>DEL NAYAR</t>
+          <t>Del Nayar</t>
         </is>
       </c>
       <c r="C198">
@@ -3028,7 +3028,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>HUAJICORI</t>
+          <t>Huajicori</t>
         </is>
       </c>
       <c r="C199">
@@ -3041,7 +3041,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C200">
@@ -3054,7 +3054,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C201">
@@ -3067,7 +3067,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C202">
@@ -3080,7 +3080,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TECUALA</t>
+          <t>Tecuala</t>
         </is>
       </c>
       <c r="C203">
@@ -3093,7 +3093,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C204">
@@ -3106,7 +3106,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C205">
@@ -3119,12 +3119,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C206">
@@ -3137,7 +3137,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C207">
@@ -3150,7 +3150,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C208">
@@ -3163,7 +3163,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>SANTA CATARINA</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="C209">
@@ -3176,7 +3176,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C210">
@@ -3189,12 +3189,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AYOQUEZCO DE ALDAMA</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C211">
@@ -3207,7 +3207,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C212">
@@ -3220,7 +3220,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C213">
@@ -3233,7 +3233,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C214">
@@ -3246,7 +3246,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C215">
@@ -3259,7 +3259,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS IXTLAHUACA</t>
+          <t>San Andrés Ixtlahuaca</t>
         </is>
       </c>
       <c r="C216">
@@ -3272,7 +3272,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C217">
@@ -3285,7 +3285,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS HIDALGO</t>
+          <t>San Nicolás Hidalgo</t>
         </is>
       </c>
       <c r="C218">
@@ -3298,7 +3298,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>SAN PABLO CUATRO VENADOS</t>
+          <t>San Pablo Cuatro Venados</t>
         </is>
       </c>
       <c r="C219">
@@ -3311,7 +3311,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>SANTA ANA ZEGACHE</t>
+          <t>Santa Ana Zegache</t>
         </is>
       </c>
       <c r="C220">
@@ -3324,7 +3324,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C221">
@@ -3337,7 +3337,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEMAXCALTEPEC</t>
+          <t>Santa María Temaxcaltepec</t>
         </is>
       </c>
       <c r="C222">
@@ -3350,7 +3350,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TLAHUITOLTEPEC</t>
+          <t>Santa María Tlahuitoltepec</t>
         </is>
       </c>
       <c r="C223">
@@ -3363,7 +3363,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C224">
@@ -3376,7 +3376,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C225">
@@ -3389,7 +3389,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>SANTIAGO YOSONDÚA</t>
+          <t>Santiago Yosondúa</t>
         </is>
       </c>
       <c r="C226">
@@ -3402,7 +3402,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO PETAPA</t>
+          <t>Santo Domingo Petapa</t>
         </is>
       </c>
       <c r="C227">
@@ -3415,7 +3415,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C228">
@@ -3428,7 +3428,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C229">
@@ -3441,7 +3441,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C230">
@@ -3454,7 +3454,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C231">
@@ -3467,7 +3467,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C232">
@@ -3480,12 +3480,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AHUAZOTEPEC</t>
+          <t>Ahuazotepec</t>
         </is>
       </c>
       <c r="C233">
@@ -3498,7 +3498,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C234">
@@ -3511,7 +3511,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C235">
@@ -3524,7 +3524,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C236">
@@ -3537,7 +3537,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C237">
@@ -3550,7 +3550,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C238">
@@ -3563,7 +3563,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>JOPALA</t>
+          <t>Jopala</t>
         </is>
       </c>
       <c r="C239">
@@ -3576,7 +3576,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>JUAN GALINDO</t>
+          <t>Juan Galindo</t>
         </is>
       </c>
       <c r="C240">
@@ -3589,7 +3589,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>PAHUATLÁN</t>
+          <t>Pahuatlán</t>
         </is>
       </c>
       <c r="C241">
@@ -3602,7 +3602,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C242">
@@ -3615,7 +3615,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C243">
@@ -3628,7 +3628,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C244">
@@ -3641,7 +3641,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C245">
@@ -3654,7 +3654,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3667,7 +3667,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>TLAOLA</t>
+          <t>Tlaola</t>
         </is>
       </c>
       <c r="C247">
@@ -3680,7 +3680,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>TLAPACOYA</t>
+          <t>Tlapacoya</t>
         </is>
       </c>
       <c r="C248">
@@ -3693,7 +3693,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>TZICATLACOYAN</t>
+          <t>Tzicatlacoyan</t>
         </is>
       </c>
       <c r="C249">
@@ -3706,7 +3706,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C250">
@@ -3719,7 +3719,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C251">
@@ -3732,7 +3732,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C252">
@@ -3745,7 +3745,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C253">
@@ -3758,7 +3758,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C254">
@@ -3771,7 +3771,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>ZONGOZOTLA</t>
+          <t>Zongozotla</t>
         </is>
       </c>
       <c r="C255">
@@ -3784,7 +3784,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C256">
@@ -3797,12 +3797,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C257">
@@ -3815,7 +3815,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C258">
@@ -3828,7 +3828,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C259">
@@ -3841,7 +3841,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C260">
@@ -3854,7 +3854,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C261">
@@ -3867,12 +3867,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C262">
@@ -3885,7 +3885,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C263">
@@ -3898,7 +3898,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C264">
@@ -3911,7 +3911,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C265">
@@ -3924,7 +3924,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>SAN MARTÍN CHALCHICUAUTLA</t>
+          <t>San Martín Chalchicuautla</t>
         </is>
       </c>
       <c r="C266">
@@ -3937,7 +3937,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C267">
@@ -3950,7 +3950,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C268">
@@ -3963,7 +3963,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C269">
@@ -3976,7 +3976,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C270">
@@ -3989,12 +3989,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C271">
@@ -4007,7 +4007,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>ANGOSTURA</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="C272">
@@ -4020,7 +4020,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C273">
@@ -4033,7 +4033,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C274">
@@ -4046,7 +4046,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C275">
@@ -4059,7 +4059,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>MOCORITO</t>
+          <t>Mocorito</t>
         </is>
       </c>
       <c r="C276">
@@ -4072,7 +4072,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C277">
@@ -4085,7 +4085,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C278">
@@ -4098,7 +4098,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C279">
@@ -4111,12 +4111,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BÁCUM</t>
+          <t>Bácum</t>
         </is>
       </c>
       <c r="C280">
@@ -4129,7 +4129,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C281">
@@ -4142,7 +4142,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>EMPALME</t>
+          <t>Empalme</t>
         </is>
       </c>
       <c r="C282">
@@ -4155,7 +4155,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C283">
@@ -4168,7 +4168,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C284">
@@ -4181,7 +4181,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C285">
@@ -4194,7 +4194,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>SAHUARIPA</t>
+          <t>Sahuaripa</t>
         </is>
       </c>
       <c r="C286">
@@ -4207,7 +4207,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C287">
@@ -4220,12 +4220,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C288">
@@ -4238,7 +4238,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C289">
@@ -4251,12 +4251,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C290">
@@ -4269,7 +4269,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C291">
@@ -4282,7 +4282,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C292">
@@ -4295,12 +4295,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C293">
@@ -4313,7 +4313,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C294">
@@ -4326,7 +4326,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C295">
@@ -4339,7 +4339,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>CONTLA DE JUAN CUAMATZI</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C296">
@@ -4352,7 +4352,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C297">
@@ -4365,7 +4365,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>HUEYOTLIPAN</t>
+          <t>Hueyotlipan</t>
         </is>
       </c>
       <c r="C298">
@@ -4378,7 +4378,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C299">
@@ -4391,7 +4391,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>MUÑOZ DE DOMINGO ARENAS</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C300">
@@ -4404,7 +4404,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>SAN LUCAS TECOPILCO</t>
+          <t>San Lucas Tecopilco</t>
         </is>
       </c>
       <c r="C301">
@@ -4417,7 +4417,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>TEPETITLA DE LARDIZÁBAL</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C302">
@@ -4430,7 +4430,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>TETLA DE LA SOLIDARIDAD</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C303">
@@ -4443,7 +4443,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C304">
@@ -4456,7 +4456,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C305">
@@ -4469,7 +4469,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>XALOZTOC</t>
+          <t>Xaloztoc</t>
         </is>
       </c>
       <c r="C306">
@@ -4482,7 +4482,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>XALTOCAN</t>
+          <t>Xaltocan</t>
         </is>
       </c>
       <c r="C307">
@@ -4495,7 +4495,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>YAUHQUEMEHCAN</t>
+          <t>Yauhquemehcan</t>
         </is>
       </c>
       <c r="C308">
@@ -4508,7 +4508,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C309">
@@ -4521,12 +4521,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C310">
@@ -4539,7 +4539,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C311">
@@ -4552,7 +4552,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C312">
@@ -4565,7 +4565,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C313">
@@ -4578,7 +4578,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C314">
@@ -4591,7 +4591,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C315">
@@ -4604,7 +4604,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>JÁLTIPAN</t>
+          <t>Jáltipan</t>
         </is>
       </c>
       <c r="C316">
@@ -4617,7 +4617,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C317">
@@ -4630,7 +4630,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C318">
@@ -4643,7 +4643,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C319">
@@ -4656,7 +4656,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C320">
@@ -4669,7 +4669,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C321">
@@ -4682,7 +4682,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C322">
@@ -4695,7 +4695,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C323">
@@ -4708,7 +4708,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C324">
@@ -4721,7 +4721,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C325">
@@ -4734,7 +4734,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C326">
@@ -4747,7 +4747,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C327">
@@ -4760,12 +4760,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BUCTZOTZ</t>
+          <t>Buctzotz</t>
         </is>
       </c>
       <c r="C328">
@@ -4778,7 +4778,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C329">
@@ -4791,7 +4791,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C330">
@@ -4804,12 +4804,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C331">
@@ -4822,7 +4822,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C332">
@@ -4835,7 +4835,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C333">
@@ -4848,7 +4848,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>GENARO CODINA</t>
+          <t>Genaro Codina</t>
         </is>
       </c>
       <c r="C334">
@@ -4861,7 +4861,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C335">
@@ -4874,7 +4874,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C336">
@@ -4887,7 +4887,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C337">
@@ -4900,7 +4900,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C338">
@@ -4913,7 +4913,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>NOCHISTLÁN DE MEJÍA</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C339">
@@ -4926,7 +4926,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C340">
@@ -4939,7 +4939,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C341">
@@ -4952,7 +4952,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C342">
@@ -4965,7 +4965,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C343">
@@ -4978,7 +4978,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C344">
@@ -4991,7 +4991,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C345">
@@ -5004,7 +5004,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C346">
@@ -5017,7 +5017,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C347">
@@ -5025,41 +5025,6 @@
       </c>
       <c r="D347">
         <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/WYOMING_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/WYOMING_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Carichí</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Santa Isabel</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1286,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1299,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1312,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1325,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1351,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1364,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1439,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1452,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -1465,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1478,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1491,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1504,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1517,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1530,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Otáez</t>
@@ -1543,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Teotihuacán</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1865,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1878,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>León</t>
@@ -1891,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1904,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1930,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1943,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -1956,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -2052,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2065,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -2078,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2091,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2104,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2117,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2161,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -2174,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -2187,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -2200,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -2213,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2226,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2309,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -2322,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -2335,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2348,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -2361,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -2374,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2387,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2400,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -2413,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -2426,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2517,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -2530,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -2543,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2639,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -2652,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -2665,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -2678,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -2691,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -2704,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -2717,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -2730,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -2756,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2769,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -2782,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2795,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -2808,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -2821,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -2834,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -2847,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -2860,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -2873,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2886,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -2899,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2912,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2943,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2956,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -2969,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -2982,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3013,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Del Nayar</t>
@@ -3026,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Huajicori</t>
@@ -3039,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -3052,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -3065,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -3078,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -3091,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -3104,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3135,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -3148,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -3161,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -3174,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3205,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -3218,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -3231,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3244,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -3257,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>San Andrés Ixtlahuaca</t>
@@ -3270,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3283,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>San Nicolás Hidalgo</t>
@@ -3296,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>San Pablo Cuatro Venados</t>
@@ -3309,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Santa Ana Zegache</t>
@@ -3322,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -3335,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -3348,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Santa María Tlahuitoltepec</t>
@@ -3361,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3374,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -3387,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -3400,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Santo Domingo Petapa</t>
@@ -3413,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -3426,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -3439,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -3452,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -3465,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3496,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -3509,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -3522,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -3535,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -3548,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3561,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -3574,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Juan Galindo</t>
@@ -3587,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -3600,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3613,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -3626,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -3639,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -3652,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -3665,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -3678,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -3691,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Tzicatlacoyan</t>
@@ -3704,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -3717,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3730,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -3743,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -3756,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -3769,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Zongozotla</t>
@@ -3782,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3813,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -3826,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -3839,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -3852,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3883,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -3896,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -3909,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3922,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -3935,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -3948,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -3961,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -3974,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4005,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -4018,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -4031,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -4044,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -4057,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -4070,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -4083,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -4096,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4127,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -4140,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -4153,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -4166,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -4179,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -4192,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Sahuaripa</t>
@@ -4205,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4236,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4267,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -4280,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4311,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -4324,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -4337,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Contla De Juan Cuamatzi</t>
@@ -4350,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -4363,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -4376,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4389,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Muñoz De Domingo Arenas</t>
@@ -4402,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>San Lucas Tecopilco</t>
@@ -4415,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -4428,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -4441,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4454,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4467,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Xaloztoc</t>
@@ -4480,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -4493,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -4506,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4537,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -4550,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -4563,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -4576,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -4589,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -4602,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -4615,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -4628,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -4641,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -4654,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -4667,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -4680,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -4693,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -4706,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -4719,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -4732,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -4745,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4776,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Mérida</t>
@@ -4789,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4820,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -4833,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -4846,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -4859,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -4872,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -4885,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -4898,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -4911,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -4924,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -4937,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -4950,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -4963,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -4976,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -4989,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -5002,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Total</t>
